--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/OHIO_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/OHIO_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1089"/>
+  <dimension ref="A1:D1083"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C53">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C106">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C112">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C127">
@@ -2161,7 +2161,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C135">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C139">
@@ -2265,13 +2265,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C143">
@@ -2310,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C146">
@@ -2323,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C147">
@@ -2362,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C150">
@@ -2414,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C154">
@@ -2518,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2583,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C167">
@@ -2700,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2817,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C185">
@@ -2830,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C186">
@@ -2843,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C187">
@@ -2869,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C189">
@@ -2960,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C196">
@@ -3051,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C203">
@@ -3116,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C208">
@@ -3129,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C209">
@@ -3142,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C210">
@@ -3277,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C220">
@@ -3290,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C221">
@@ -3303,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C222">
@@ -3394,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C229">
@@ -3446,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3537,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C240">
@@ -3589,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C244">
@@ -3615,14 +3614,14 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C246">
         <v>65</v>
       </c>
       <c r="D246">
-        <v>0.009707287933094385</v>
+        <v>0.009707287933094383</v>
       </c>
     </row>
     <row r="247">
@@ -3641,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C248">
@@ -3654,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C249">
@@ -3667,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C250">
@@ -3706,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C253">
@@ -3789,7 +3788,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C259">
@@ -3815,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C261">
@@ -3828,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C262">
@@ -3854,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C264">
@@ -3880,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C266">
@@ -3893,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C267">
@@ -3906,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C268">
@@ -3919,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C269">
@@ -3932,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C270">
@@ -3945,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C271">
@@ -3997,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C275">
@@ -4010,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C276">
@@ -4049,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C279">
@@ -4062,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C280">
@@ -4114,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C284">
@@ -4127,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C285">
@@ -4179,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C289">
@@ -4348,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C302">
@@ -4374,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C304">
@@ -4400,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C306">
@@ -4426,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C308">
@@ -4465,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C311">
@@ -4626,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C323">
@@ -4678,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C327">
@@ -4704,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C329">
@@ -4743,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C332">
@@ -4782,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C335">
@@ -4795,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C336">
@@ -4821,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C338">
@@ -4834,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C339">
@@ -4938,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C347">
@@ -4951,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C348">
@@ -4977,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C350">
@@ -5016,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C353">
@@ -5029,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C354">
@@ -5042,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C355">
@@ -5125,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C361">
@@ -5138,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C362">
@@ -5151,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C363">
@@ -5216,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C368">
@@ -5268,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C372">
@@ -5320,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C376">
@@ -5346,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C378">
@@ -5372,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C380">
@@ -5463,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C387">
@@ -5476,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C388">
@@ -5528,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C392">
@@ -5567,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C395">
@@ -5580,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C396">
@@ -5619,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5632,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C400">
@@ -5710,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C406">
@@ -5723,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C407">
@@ -5788,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C412">
@@ -5988,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C427">
@@ -6281,7 +6280,7 @@
         <v>64</v>
       </c>
       <c r="D449">
-        <v>0.009557945041816009</v>
+        <v>0.009557945041816007</v>
       </c>
     </row>
     <row r="450">
@@ -6638,7 +6637,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C477">
@@ -7020,7 +7019,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C506">
@@ -7072,7 +7071,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C510">
@@ -7085,7 +7084,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C511">
@@ -7163,7 +7162,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C517">
@@ -7194,7 +7193,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C519">
@@ -7272,7 +7271,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C525">
@@ -7446,7 +7445,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C538">
@@ -7490,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C541">
@@ -7555,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C546">
@@ -7581,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C548">
@@ -7607,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C550">
@@ -7620,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C551">
@@ -7633,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C552">
@@ -7646,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C553">
@@ -7672,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7685,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C556">
@@ -7815,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C566">
@@ -7828,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C567">
@@ -7880,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C571">
@@ -7893,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C572">
@@ -7919,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C574">
@@ -7932,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C575">
@@ -8075,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C586">
@@ -8114,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C589">
@@ -8335,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C606">
@@ -8400,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C611">
@@ -8660,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C631">
@@ -8738,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C637">
@@ -8855,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C646">
@@ -8907,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C650">
@@ -9271,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C678">
@@ -9375,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C686">
@@ -9544,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C699">
@@ -9726,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C713">
@@ -9843,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C722">
@@ -9856,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C723">
@@ -9882,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C725">
@@ -9895,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C726">
@@ -9921,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C728">
@@ -9934,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C729">
@@ -9947,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C730">
@@ -9973,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C732">
@@ -9986,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C733">
@@ -10025,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C736">
@@ -10173,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C747">
@@ -10394,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C764">
@@ -10446,7 +10445,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C768">
@@ -10472,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C770">
@@ -10524,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C774">
@@ -10550,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C776">
@@ -10732,7 +10731,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C790">
@@ -10784,7 +10783,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C794">
@@ -10875,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C801">
@@ -10888,7 +10887,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C802">
@@ -10940,7 +10939,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C806">
@@ -11166,7 +11165,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C823">
@@ -11192,7 +11191,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C825">
@@ -11244,7 +11243,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C829">
@@ -11257,7 +11256,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C830">
@@ -11296,7 +11295,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C833">
@@ -11335,7 +11334,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C836">
@@ -11462,7 +11461,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C845">
@@ -11527,7 +11526,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C850">
@@ -11605,7 +11604,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C856">
@@ -11670,7 +11669,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C861">
@@ -11696,7 +11695,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C863">
@@ -11709,7 +11708,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C864">
@@ -11761,7 +11760,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C868">
@@ -11787,7 +11786,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C870">
@@ -11800,7 +11799,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C871">
@@ -11813,7 +11812,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C872">
@@ -11826,7 +11825,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C873">
@@ -12561,7 +12560,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C928">
@@ -12683,7 +12682,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C937">
@@ -12709,7 +12708,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C939">
@@ -12722,7 +12721,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C940">
@@ -12948,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C957">
@@ -12987,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C960">
@@ -13104,7 +13103,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C969">
@@ -13221,7 +13220,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C978">
@@ -13234,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C979">
@@ -13260,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C981">
@@ -13273,7 +13272,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C982">
@@ -13390,7 +13389,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C991">
@@ -13442,7 +13441,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C995">
@@ -13468,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C997">
@@ -13624,7 +13623,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1009">
@@ -13637,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1010">
@@ -13676,7 +13675,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13767,7 +13766,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1020">
@@ -13780,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1021">
@@ -13949,7 +13948,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1034">
@@ -14079,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1044">
@@ -14157,7 +14156,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1050">
@@ -14170,7 +14169,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1051">
@@ -14427,7 +14426,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1070">
@@ -14440,7 +14439,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1071">
@@ -14604,41 +14603,6 @@
       </c>
       <c r="D1083">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
